--- a/data_analyzed/Energy (kcal)/Energy (kcal)_games_2q.xlsx
+++ b/data_analyzed/Energy (kcal)/Energy (kcal)_games_2q.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:AF45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,114 +441,234 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Alexis Rainey</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Balduzzi</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Burns</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Curley</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Daud</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>DeLeo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Diedrichsen</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Doyle</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Espona</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Ferriolo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Forman</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Hackman</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Hartsch</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Holzman</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Hughes</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>LaCroix</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Larripa</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>McCann</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>McFadden</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Myers</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Pla</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Reilly</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Ricci</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Rodrigo</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Smyth</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Streib</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Tollaksen</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Wasyliw</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Yanovich</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>44801</v>
       </c>
       <c r="B2" t="n">
+        <v>178.5411</v>
+      </c>
+      <c r="C2" t="n">
         <v>200.5217</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>5.3946</v>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>233.2845</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>217.7678</v>
+      </c>
       <c r="J2" t="n">
+        <v>145.4504</v>
+      </c>
+      <c r="K2" t="n">
+        <v>233.2845</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>59.8752</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>206.5677</v>
+      </c>
+      <c r="P2" t="n">
+        <v>17.2309</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>203.6686</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="n">
         <v>6.2259</v>
       </c>
-      <c r="K2" t="n">
+      <c r="U2" t="n">
+        <v>141.0458</v>
+      </c>
+      <c r="V2" t="n">
         <v>3.9278</v>
       </c>
-      <c r="L2" t="n">
+      <c r="W2" t="n">
+        <v>60.6312</v>
+      </c>
+      <c r="X2" t="n">
         <v>219.8539</v>
       </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="Y2" t="n">
+        <v>8.184799999999999</v>
+      </c>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="n">
         <v>134.6157</v>
       </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="n">
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="n">
+        <v>206.2379</v>
+      </c>
+      <c r="AE2" t="n">
         <v>16.6143</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>96.8616</v>
       </c>
     </row>
     <row r="3">
@@ -556,35 +676,75 @@
         <v>44804</v>
       </c>
       <c r="B3" t="n">
+        <v>169.4232</v>
+      </c>
+      <c r="C3" t="n">
         <v>219.4779</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>8.3063</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>8.555999999999999</v>
-      </c>
+      <c r="E3" t="n">
+        <v>68.0647</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>266.5221</v>
+      </c>
       <c r="J3" t="n">
-        <v>124.0261</v>
+        <v>153.1407</v>
       </c>
       <c r="K3" t="n">
-        <v>8.142099999999999</v>
-      </c>
-      <c r="L3" t="n">
-        <v>215.3486</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
-        <v>162.3304</v>
-      </c>
+        <v>8.555999999999999</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>185.3113</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
+        <v>12.5826</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>221.5751</v>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="n">
+        <v>124.0261</v>
+      </c>
+      <c r="U3" t="n">
+        <v>180.5584</v>
+      </c>
+      <c r="V3" t="n">
+        <v>8.142099999999999</v>
+      </c>
+      <c r="W3" t="n">
+        <v>65.4366</v>
+      </c>
+      <c r="X3" t="n">
+        <v>215.3486</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8.8439</v>
+      </c>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="n">
+        <v>162.3304</v>
+      </c>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="n">
+        <v>271.6872</v>
+      </c>
+      <c r="AE3" t="n">
         <v>25.7953</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>126.212</v>
       </c>
     </row>
     <row r="4">
@@ -592,35 +752,77 @@
         <v>44808</v>
       </c>
       <c r="B4" t="n">
+        <v>106.914</v>
+      </c>
+      <c r="C4" t="n">
         <v>196.5557</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>3.6749</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>10.221</v>
-      </c>
+      <c r="E4" t="n">
+        <v>50.098</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>240.0621</v>
+      </c>
       <c r="J4" t="n">
+        <v>147.9723</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10.221</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>170.5335</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>197.0259</v>
+      </c>
+      <c r="P4" t="n">
+        <v>28.7795</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>194.3121</v>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="n">
         <v>139.2206</v>
       </c>
-      <c r="K4" t="n">
+      <c r="U4" t="n">
+        <v>129.8717</v>
+      </c>
+      <c r="V4" t="n">
         <v>3.1311</v>
       </c>
-      <c r="L4" t="n">
+      <c r="W4" t="n">
+        <v>88.7671</v>
+      </c>
+      <c r="X4" t="n">
         <v>172.2883</v>
       </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="Y4" t="n">
+        <v>58.4047</v>
+      </c>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="n">
         <v>177.2083</v>
       </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="n">
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="n">
+        <v>216.8538</v>
+      </c>
+      <c r="AE4" t="n">
         <v>33.7604</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>103.4337</v>
       </c>
     </row>
     <row r="5">
@@ -628,313 +830,683 @@
         <v>44813</v>
       </c>
       <c r="B5" t="n">
+        <v>8.254300000000001</v>
+      </c>
+      <c r="C5" t="n">
         <v>248.7799</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>13.3282</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>131.871</v>
-      </c>
+      <c r="E5" t="n">
+        <v>58.6781</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>253.442</v>
+      </c>
       <c r="J5" t="n">
+        <v>178.3726</v>
+      </c>
+      <c r="K5" t="n">
+        <v>131.871</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>218.4524</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>231.3204</v>
+      </c>
+      <c r="P5" t="n">
+        <v>17.1917</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>222.1666</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="n">
         <v>63.352</v>
       </c>
-      <c r="K5" t="n">
+      <c r="U5" t="n">
+        <v>195.3919</v>
+      </c>
+      <c r="V5" t="n">
         <v>200.4836</v>
       </c>
-      <c r="L5" t="n">
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="n">
         <v>218.8277</v>
       </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="Y5" t="n">
+        <v>11.2109</v>
+      </c>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="n">
         <v>138.6447</v>
       </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="n">
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="n">
+        <v>274.4337</v>
+      </c>
+      <c r="AE5" t="n">
         <v>30.9046</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>44815</v>
       </c>
       <c r="B6" t="n">
+        <v>90.2026</v>
+      </c>
+      <c r="C6" t="n">
         <v>228.5954</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>7.4691</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>6.5589</v>
-      </c>
+      <c r="E6" t="n">
+        <v>51.735</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>186.5903</v>
+      </c>
       <c r="J6" t="n">
+        <v>171.2027</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6.5589</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>110.2065</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>221.718</v>
+      </c>
+      <c r="P6" t="n">
+        <v>15.9452</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>179.4449</v>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="n">
         <v>280.7223</v>
       </c>
-      <c r="K6" t="n">
+      <c r="U6" t="n">
+        <v>108.2288</v>
+      </c>
+      <c r="V6" t="n">
         <v>207.9246</v>
       </c>
-      <c r="L6" t="n">
+      <c r="W6" t="n">
+        <v>102.8542</v>
+      </c>
+      <c r="X6" t="n">
         <v>205.1572</v>
       </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="Y6" t="n">
+        <v>11.1258</v>
+      </c>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="n">
         <v>10.5011</v>
       </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="n">
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="n">
+        <v>11.653</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>232.0394</v>
+      </c>
+      <c r="AE6" t="n">
         <v>85.1378</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>44820</v>
       </c>
       <c r="B7" t="n">
+        <v>124.2087</v>
+      </c>
+      <c r="C7" t="n">
         <v>186.5833</v>
       </c>
-      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>2.1876</v>
-      </c>
+      <c r="E7" t="n">
+        <v>61.2368</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>231.2362</v>
+      </c>
       <c r="J7" t="n">
+        <v>162.9524</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.1876</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="n">
+        <v>117.0267</v>
+      </c>
+      <c r="P7" t="n">
+        <v>16.0277</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>160.6145</v>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="n">
         <v>237.1099</v>
       </c>
-      <c r="K7" t="n">
+      <c r="U7" t="n">
+        <v>121.7713</v>
+      </c>
+      <c r="V7" t="n">
         <v>149.7581</v>
       </c>
-      <c r="L7" t="n">
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="n">
         <v>157.4337</v>
       </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="Y7" t="n">
+        <v>6.3792</v>
+      </c>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="n">
         <v>208.4211</v>
       </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="n">
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="n">
+        <v>5.4832</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>247.5758</v>
+      </c>
+      <c r="AE7" t="n">
         <v>68.8653</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>44822</v>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>217.4372</v>
       </c>
-      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>17.1991</v>
-      </c>
+      <c r="E8" t="n">
+        <v>65.1692</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>144.7305</v>
+      </c>
       <c r="J8" t="n">
+        <v>67.05880000000001</v>
+      </c>
+      <c r="K8" t="n">
+        <v>17.1991</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>150.4895</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="n">
+        <v>131.9893</v>
+      </c>
+      <c r="P8" t="n">
+        <v>23.6553</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>215.5191</v>
+      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="n">
         <v>289.558</v>
       </c>
-      <c r="K8" t="n">
+      <c r="U8" t="n">
+        <v>144.2392</v>
+      </c>
+      <c r="V8" t="n">
         <v>140.3238</v>
       </c>
-      <c r="L8" t="n">
+      <c r="W8" t="n">
+        <v>154.6532</v>
+      </c>
+      <c r="X8" t="n">
         <v>200.3975</v>
       </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="Y8" t="n">
+        <v>14.0583</v>
+      </c>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="n">
         <v>209.0127</v>
       </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="n">
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="n">
+        <v>23.6434</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>256.0951</v>
+      </c>
+      <c r="AE8" t="n">
         <v>57.7642</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>44827</v>
       </c>
       <c r="B9" t="n">
+        <v>175.9747</v>
+      </c>
+      <c r="C9" t="n">
         <v>213.7283</v>
       </c>
-      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>10.8693</v>
-      </c>
+      <c r="E9" t="n">
+        <v>54.1954</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>230.1412</v>
+      </c>
       <c r="J9" t="n">
+        <v>141.9023</v>
+      </c>
+      <c r="K9" t="n">
+        <v>10.8693</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>5.1646</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>9.783099999999999</v>
+      </c>
+      <c r="P9" t="n">
+        <v>9.026300000000001</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>172.6076</v>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="n">
         <v>258.283</v>
       </c>
-      <c r="K9" t="n">
+      <c r="U9" t="n">
+        <v>141.0331</v>
+      </c>
+      <c r="V9" t="n">
         <v>54.7184</v>
       </c>
-      <c r="L9" t="n">
+      <c r="W9" t="n">
+        <v>30.8551</v>
+      </c>
+      <c r="X9" t="n">
         <v>189.9724</v>
       </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="Y9" t="n">
+        <v>7.5187</v>
+      </c>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="n">
         <v>208.7793</v>
       </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="n">
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="n">
+        <v>11.7076</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>221.7718</v>
+      </c>
+      <c r="AE9" t="n">
         <v>80.4881</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>44829</v>
       </c>
       <c r="B10" t="n">
+        <v>68.7766</v>
+      </c>
+      <c r="C10" t="n">
         <v>212.5701</v>
       </c>
-      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>11.9699</v>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>168.391</v>
+      </c>
       <c r="J10" t="n">
+        <v>166.2666</v>
+      </c>
+      <c r="K10" t="n">
+        <v>11.9699</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>197.3963</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="n">
+        <v>22.4707</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>229.6627</v>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="n">
         <v>291.1334</v>
       </c>
-      <c r="K10" t="n">
+      <c r="U10" t="n">
+        <v>115.5834</v>
+      </c>
+      <c r="V10" t="n">
         <v>227.7967</v>
       </c>
-      <c r="L10" t="n">
+      <c r="W10" t="n">
+        <v>272.612</v>
+      </c>
+      <c r="X10" t="n">
         <v>210.7513</v>
       </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="Y10" t="n">
+        <v>11.9194</v>
+      </c>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="n">
         <v>228.7198</v>
       </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="n">
+        <v>25.7405</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>181.5828</v>
+      </c>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>44834</v>
       </c>
       <c r="B11" t="n">
+        <v>11.7082</v>
+      </c>
+      <c r="C11" t="n">
         <v>240.847</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>16.2568</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>14.7883</v>
-      </c>
+      <c r="E11" t="n">
+        <v>52.5559</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>90.49850000000001</v>
+      </c>
       <c r="J11" t="n">
+        <v>89.8682</v>
+      </c>
+      <c r="K11" t="n">
+        <v>14.7883</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>10.8817</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>248.3544</v>
+      </c>
+      <c r="P11" t="n">
+        <v>23.5056</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>183.8343</v>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
         <v>275.5875</v>
       </c>
-      <c r="K11" t="n">
+      <c r="U11" t="n">
+        <v>139.162</v>
+      </c>
+      <c r="V11" t="n">
         <v>299.7188</v>
       </c>
-      <c r="L11" t="n">
+      <c r="W11" t="n">
+        <v>203.9881</v>
+      </c>
+      <c r="X11" t="n">
         <v>218.4977</v>
       </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="Y11" t="n">
+        <v>14.0377</v>
+      </c>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="n">
         <v>223.6336</v>
       </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="n">
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="n">
+        <v>13.207</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>230.9484</v>
+      </c>
+      <c r="AE11" t="n">
         <v>89.4238</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>44836</v>
       </c>
       <c r="B12" t="n">
+        <v>245.9076</v>
+      </c>
+      <c r="C12" t="n">
         <v>207.9577</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>27.7493</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>14.4041</v>
-      </c>
+      <c r="E12" t="n">
+        <v>54.0383</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>267.7474</v>
+      </c>
       <c r="J12" t="n">
+        <v>49.9069</v>
+      </c>
+      <c r="K12" t="n">
+        <v>14.4041</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>90.2567</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="n">
+        <v>177.8391</v>
+      </c>
+      <c r="P12" t="n">
+        <v>14.8619</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>220.0603</v>
+      </c>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="n">
         <v>213.189</v>
       </c>
-      <c r="K12" t="n">
+      <c r="U12" t="n">
+        <v>131.1024</v>
+      </c>
+      <c r="V12" t="n">
         <v>104.6251</v>
       </c>
-      <c r="L12" t="n">
+      <c r="W12" t="n">
+        <v>12.4335</v>
+      </c>
+      <c r="X12" t="n">
         <v>188.9012</v>
       </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="Y12" t="n">
+        <v>112.2004</v>
+      </c>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="n">
         <v>206.9449</v>
       </c>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="n">
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="n">
+        <v>16.0645</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>249.3735</v>
+      </c>
+      <c r="AE12" t="n">
         <v>43.8883</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>44841</v>
       </c>
       <c r="B13" t="n">
+        <v>205.2702</v>
+      </c>
+      <c r="C13" t="n">
         <v>196.2783</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>12.0117</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>14.4339</v>
-      </c>
+      <c r="E13" t="n">
+        <v>47.1818</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>166.8509</v>
+      </c>
       <c r="J13" t="n">
+        <v>133.6404</v>
+      </c>
+      <c r="K13" t="n">
+        <v>14.4339</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>47.5303</v>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="n">
+        <v>200.9756</v>
+      </c>
+      <c r="P13" t="n">
+        <v>6.5682</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>199.3297</v>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="n">
         <v>246.5385</v>
       </c>
-      <c r="K13" t="n">
+      <c r="U13" t="n">
+        <v>94.4164</v>
+      </c>
+      <c r="V13" t="n">
         <v>115.5867</v>
       </c>
-      <c r="L13" t="n">
+      <c r="W13" t="n">
+        <v>96.3412</v>
+      </c>
+      <c r="X13" t="n">
         <v>175.0073</v>
       </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="Y13" t="n">
+        <v>10.0724</v>
+      </c>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="n">
         <v>160.9852</v>
       </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="n">
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="n">
+        <v>14.0075</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>185.7434</v>
+      </c>
+      <c r="AE13" t="n">
         <v>24.4379</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>43.8343</v>
       </c>
     </row>
     <row r="14">
@@ -942,35 +1514,79 @@
         <v>44843</v>
       </c>
       <c r="B14" t="n">
+        <v>262.0159</v>
+      </c>
+      <c r="C14" t="n">
         <v>249.8892</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>21.1715</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>20.8305</v>
-      </c>
+      <c r="E14" t="n">
+        <v>65.89490000000001</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>63.5405</v>
+      </c>
       <c r="J14" t="n">
+        <v>117.8564</v>
+      </c>
+      <c r="K14" t="n">
+        <v>20.8305</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>53.5035</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>290.7057</v>
+      </c>
+      <c r="P14" t="n">
+        <v>25.9622</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>232.2373</v>
+      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="n">
         <v>308.3549</v>
       </c>
-      <c r="K14" t="n">
+      <c r="U14" t="n">
+        <v>168.667</v>
+      </c>
+      <c r="V14" t="n">
         <v>17.9536</v>
       </c>
-      <c r="L14" t="n">
+      <c r="W14" t="n">
+        <v>254.5588</v>
+      </c>
+      <c r="X14" t="n">
         <v>211.7907</v>
       </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="Y14" t="n">
+        <v>24.9385</v>
+      </c>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="n">
         <v>233.7707</v>
       </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="n">
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="n">
+        <v>27.7406</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>269.1191</v>
+      </c>
+      <c r="AE14" t="n">
         <v>38.9034</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>12.7786</v>
       </c>
     </row>
     <row r="15">
@@ -978,71 +1594,157 @@
         <v>44848</v>
       </c>
       <c r="B15" t="n">
+        <v>207.9165</v>
+      </c>
+      <c r="C15" t="n">
         <v>230.0864</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>11.8619</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>78.19629999999999</v>
-      </c>
+      <c r="E15" t="n">
+        <v>50.311</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>161.9034</v>
+      </c>
       <c r="J15" t="n">
+        <v>126.4775</v>
+      </c>
+      <c r="K15" t="n">
+        <v>78.19629999999999</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>76.2899</v>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="n">
+        <v>147.004</v>
+      </c>
+      <c r="P15" t="n">
+        <v>21.9926</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="n">
         <v>285.8977</v>
       </c>
-      <c r="K15" t="n">
+      <c r="U15" t="n">
+        <v>142.837</v>
+      </c>
+      <c r="V15" t="n">
         <v>149.5894</v>
       </c>
-      <c r="L15" t="n">
+      <c r="W15" t="n">
+        <v>141.6549</v>
+      </c>
+      <c r="X15" t="n">
         <v>179.0769</v>
       </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="Y15" t="n">
+        <v>9.7315</v>
+      </c>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="n">
         <v>207.8833</v>
       </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="n">
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="n">
+        <v>14.3651</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>189.5838</v>
+      </c>
+      <c r="AE15" t="n">
         <v>30.2557</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>2.9284</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>44850</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="n">
         <v>215.2036</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>21.1257</v>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>14.8764</v>
-      </c>
+      <c r="E16" t="n">
+        <v>59.5154</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>9.446199999999999</v>
+      </c>
       <c r="J16" t="n">
+        <v>158.058</v>
+      </c>
+      <c r="K16" t="n">
+        <v>14.8764</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>73.10469999999999</v>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="n">
+        <v>158.997</v>
+      </c>
+      <c r="P16" t="n">
+        <v>17.8767</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>191.9754</v>
+      </c>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="n">
         <v>300.0575</v>
       </c>
-      <c r="K16" t="n">
+      <c r="U16" t="n">
+        <v>118.9363</v>
+      </c>
+      <c r="V16" t="n">
         <v>145.8148</v>
       </c>
-      <c r="L16" t="n">
+      <c r="W16" t="n">
+        <v>284.4013</v>
+      </c>
+      <c r="X16" t="n">
         <v>180.8916</v>
       </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="Y16" t="n">
+        <v>13.7372</v>
+      </c>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="n">
         <v>207.2344</v>
       </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="n">
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="n">
+        <v>19.5685</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>259.929</v>
+      </c>
+      <c r="AE16" t="n">
         <v>69.1644</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>8.193300000000001</v>
       </c>
     </row>
     <row r="17">
@@ -1050,35 +1752,79 @@
         <v>44855</v>
       </c>
       <c r="B17" t="n">
+        <v>222.94</v>
+      </c>
+      <c r="C17" t="n">
         <v>208.3683</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>9.8071</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>13.3305</v>
-      </c>
+      <c r="E17" t="n">
+        <v>36.2305</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>6.8535</v>
+      </c>
       <c r="J17" t="n">
+        <v>172.2236</v>
+      </c>
+      <c r="K17" t="n">
+        <v>13.3305</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>8.481999999999999</v>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="n">
+        <v>144.8803</v>
+      </c>
+      <c r="P17" t="n">
+        <v>11.5564</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>174.5434</v>
+      </c>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="n">
         <v>255.4342</v>
       </c>
-      <c r="K17" t="n">
+      <c r="U17" t="n">
+        <v>98.4564</v>
+      </c>
+      <c r="V17" t="n">
         <v>7.3977</v>
       </c>
-      <c r="L17" t="n">
+      <c r="W17" t="n">
+        <v>248.1626</v>
+      </c>
+      <c r="X17" t="n">
         <v>177.266</v>
       </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="Y17" t="n">
+        <v>8.575799999999999</v>
+      </c>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="n">
         <v>185.8176</v>
       </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="n">
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="n">
+        <v>11.055</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>230.9361</v>
+      </c>
+      <c r="AE17" t="n">
         <v>67.0985</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>8.1495</v>
       </c>
     </row>
     <row r="18">
@@ -1086,35 +1832,77 @@
         <v>44862</v>
       </c>
       <c r="B18" t="n">
+        <v>213.9387</v>
+      </c>
+      <c r="C18" t="n">
         <v>229.2567</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>21.1517</v>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>91.0802</v>
-      </c>
+      <c r="E18" t="n">
+        <v>68.7927</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>202.6586</v>
+      </c>
       <c r="J18" t="n">
+        <v>10.7416</v>
+      </c>
+      <c r="K18" t="n">
+        <v>91.0802</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>7.1462</v>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="n">
+        <v>230.7939</v>
+      </c>
+      <c r="P18" t="n">
+        <v>13.9037</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>206.6691</v>
+      </c>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="n">
         <v>278.0586</v>
       </c>
-      <c r="K18" t="n">
+      <c r="U18" t="n">
+        <v>102.9111</v>
+      </c>
+      <c r="V18" t="n">
         <v>9.8605</v>
       </c>
-      <c r="L18" t="n">
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="n">
         <v>212.6557</v>
       </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="Y18" t="n">
+        <v>7.1454</v>
+      </c>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="n">
         <v>215.0121</v>
       </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="n">
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="n">
+        <v>14.8551</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>282.8006</v>
+      </c>
+      <c r="AE18" t="n">
         <v>49.8726</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>6.1111</v>
       </c>
     </row>
     <row r="19">
@@ -1122,1012 +1910,1698 @@
         <v>44864</v>
       </c>
       <c r="B19" t="n">
+        <v>219.7821</v>
+      </c>
+      <c r="C19" t="n">
         <v>214.8416</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>18.0428</v>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>16.924</v>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>102.7557</v>
+      </c>
       <c r="J19" t="n">
+        <v>9.4909</v>
+      </c>
+      <c r="K19" t="n">
+        <v>16.924</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>8.167299999999999</v>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="n">
+        <v>235.7345</v>
+      </c>
+      <c r="P19" t="n">
+        <v>11.4885</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>185.2131</v>
+      </c>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="n">
         <v>238.9333</v>
       </c>
-      <c r="K19" t="n">
+      <c r="U19" t="n">
+        <v>160.8339</v>
+      </c>
+      <c r="V19" t="n">
         <v>7.4871</v>
       </c>
-      <c r="L19" t="n">
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="n">
         <v>179.9139</v>
       </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="Y19" t="n">
+        <v>9.3764</v>
+      </c>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="n">
         <v>192.0389</v>
       </c>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="n">
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="n">
+        <v>38.6834</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>221.0133</v>
+      </c>
+      <c r="AE19" t="n">
         <v>55.3159</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>6.3679</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>45010</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="n">
         <v>190.4007</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>144.5288</v>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>233.7646</v>
-      </c>
+      <c r="E20" t="n">
+        <v>14.8869</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>221.9539</v>
+      </c>
       <c r="J20" t="n">
+        <v>208.7629</v>
+      </c>
+      <c r="K20" t="n">
+        <v>233.7646</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="n">
+        <v>177.8886</v>
+      </c>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="n">
         <v>235.5836</v>
       </c>
-      <c r="K20" t="n">
+      <c r="U20" t="n">
+        <v>170.6907</v>
+      </c>
+      <c r="V20" t="n">
         <v>124.8643</v>
       </c>
-      <c r="L20" t="n">
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="n">
         <v>173.2428</v>
       </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="n">
         <v>178.2486</v>
       </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="n">
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="n">
+        <v>43.2918</v>
+      </c>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="n">
         <v>60.1578</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>45035</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="n">
         <v>184.5516</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>192.5782</v>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>204.8334</v>
-      </c>
+      <c r="E21" t="n">
+        <v>1.2485</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>217.8018</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
+        <v>204.8334</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="n">
         <v>0.059</v>
       </c>
-      <c r="L21" t="n">
+      <c r="W21" t="n">
+        <v>166.5527</v>
+      </c>
+      <c r="X21" t="n">
         <v>172.5217</v>
       </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="n">
         <v>0</v>
       </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="n">
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="n">
         <v>0</v>
       </c>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>45156</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="n">
         <v>211.9403</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>85.2375</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>185.3549</v>
+      </c>
+      <c r="G22" t="n">
         <v>64.4023</v>
       </c>
-      <c r="E22" t="n">
+      <c r="H22" t="n">
         <v>131.3916</v>
       </c>
-      <c r="F22" t="n">
+      <c r="I22" t="n">
+        <v>152.0646</v>
+      </c>
+      <c r="J22" t="n">
+        <v>5.7805</v>
+      </c>
+      <c r="K22" t="n">
         <v>78.13809999999999</v>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="n">
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>211.9712</v>
       </c>
-      <c r="I22" t="n">
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="n">
+        <v>92.81359999999999</v>
+      </c>
+      <c r="R22" t="n">
         <v>180.2762</v>
       </c>
-      <c r="J22" t="n">
+      <c r="S22" t="n">
+        <v>231.7724</v>
+      </c>
+      <c r="T22" t="n">
         <v>150.5118</v>
       </c>
-      <c r="K22" t="n">
+      <c r="U22" t="n">
+        <v>65.04559999999999</v>
+      </c>
+      <c r="V22" t="n">
         <v>118.6532</v>
       </c>
-      <c r="L22" t="n">
+      <c r="W22" t="n">
+        <v>172.5617</v>
+      </c>
+      <c r="X22" t="n">
         <v>210.5585</v>
       </c>
-      <c r="M22" t="n">
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="n">
         <v>122.0911</v>
       </c>
-      <c r="N22" t="n">
+      <c r="AA22" t="n">
         <v>9.1578</v>
       </c>
-      <c r="O22" t="n">
+      <c r="AB22" t="n">
         <v>129.9154</v>
       </c>
-      <c r="P22" t="n">
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="n">
         <v>39.3919</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>45159</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
         <v>167.9641</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>11.3089</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>187.2132</v>
+      </c>
+      <c r="G23" t="n">
         <v>8.9008</v>
       </c>
-      <c r="E23" t="n">
+      <c r="H23" t="n">
         <v>12.595</v>
       </c>
-      <c r="F23" t="n">
+      <c r="I23" t="n">
+        <v>126.2556</v>
+      </c>
+      <c r="J23" t="n">
+        <v>139.998</v>
+      </c>
+      <c r="K23" t="n">
         <v>155.6493</v>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>99.7007</v>
       </c>
-      <c r="I23" t="n">
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="n">
+        <v>69.8172</v>
+      </c>
+      <c r="R23" t="n">
         <v>13.2222</v>
       </c>
-      <c r="J23" t="n">
+      <c r="S23" t="n">
+        <v>211.6636</v>
+      </c>
+      <c r="T23" t="n">
         <v>183.083</v>
       </c>
-      <c r="K23" t="n">
+      <c r="U23" t="n">
+        <v>94.40900000000001</v>
+      </c>
+      <c r="V23" t="n">
         <v>78.19970000000001</v>
       </c>
-      <c r="L23" t="n">
+      <c r="W23" t="n">
+        <v>197.0857</v>
+      </c>
+      <c r="X23" t="n">
         <v>182.2572</v>
       </c>
-      <c r="M23" t="n">
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="n">
         <v>174.2199</v>
       </c>
-      <c r="N23" t="n">
+      <c r="AA23" t="n">
         <v>91.3129</v>
       </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="n">
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="n">
         <v>51.8433</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>45163</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="n">
         <v>196.9594</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>11.7761</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>227.7652</v>
+      </c>
+      <c r="G24" t="n">
         <v>14.0433</v>
       </c>
-      <c r="E24" t="n">
+      <c r="H24" t="n">
         <v>20.9434</v>
       </c>
-      <c r="F24" t="n">
+      <c r="I24" t="n">
+        <v>201.7845</v>
+      </c>
+      <c r="J24" t="n">
+        <v>122.0499</v>
+      </c>
+      <c r="K24" t="n">
         <v>16.764</v>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="n">
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>199.3703</v>
       </c>
-      <c r="I24" t="n">
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="n">
+        <v>169.4246</v>
+      </c>
+      <c r="R24" t="n">
         <v>22.0857</v>
       </c>
-      <c r="J24" t="n">
+      <c r="S24" t="n">
+        <v>270.0111</v>
+      </c>
+      <c r="T24" t="n">
         <v>208.6991</v>
       </c>
-      <c r="K24" t="n">
+      <c r="U24" t="n">
+        <v>84.2818</v>
+      </c>
+      <c r="V24" t="n">
         <v>108.707</v>
       </c>
-      <c r="L24" t="n">
+      <c r="W24" t="n">
+        <v>94.2873</v>
+      </c>
+      <c r="X24" t="n">
         <v>171.0639</v>
       </c>
-      <c r="M24" t="n">
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="n">
         <v>140.6985</v>
       </c>
-      <c r="N24" t="n">
+      <c r="AA24" t="n">
         <v>220.3245</v>
       </c>
-      <c r="O24" t="n">
+      <c r="AB24" t="n">
         <v>166.6241</v>
       </c>
-      <c r="P24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>45165</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
         <v>200.4927</v>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="n">
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>201.3339</v>
+      </c>
+      <c r="G25" t="n">
         <v>117.8407</v>
       </c>
-      <c r="E25" t="n">
+      <c r="H25" t="n">
         <v>15.4221</v>
       </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
+        <v>8.819900000000001</v>
+      </c>
+      <c r="J25" t="n">
+        <v>129.9488</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>204.5697</v>
       </c>
-      <c r="I25" t="n">
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="n">
+        <v>146.7115</v>
+      </c>
+      <c r="R25" t="n">
         <v>76.953</v>
       </c>
-      <c r="J25" t="n">
+      <c r="S25" t="n">
+        <v>262.6913</v>
+      </c>
+      <c r="T25" t="n">
         <v>178.8998</v>
       </c>
-      <c r="K25" t="n">
+      <c r="U25" t="n">
+        <v>152.5931</v>
+      </c>
+      <c r="V25" t="n">
         <v>94.3976</v>
       </c>
-      <c r="L25" t="n">
+      <c r="W25" t="n">
+        <v>171.7587</v>
+      </c>
+      <c r="X25" t="n">
         <v>212.3703</v>
       </c>
-      <c r="M25" t="n">
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="n">
         <v>185.2375</v>
       </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="n">
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="n">
         <v>104.8564</v>
       </c>
-      <c r="P25" t="n">
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="n">
         <v>3.7313</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>45170</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="n">
         <v>210.2359</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>4.8518</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>226.4798</v>
+      </c>
+      <c r="G26" t="n">
         <v>5.0168</v>
       </c>
-      <c r="E26" t="n">
+      <c r="H26" t="n">
         <v>12.5845</v>
       </c>
-      <c r="F26" t="n">
+      <c r="I26" t="n">
+        <v>145.2485</v>
+      </c>
+      <c r="J26" t="n">
+        <v>158.1501</v>
+      </c>
+      <c r="K26" t="n">
         <v>7.4928</v>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="n">
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>244.3711</v>
       </c>
-      <c r="I26" t="n">
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="n">
+        <v>175.9845</v>
+      </c>
+      <c r="R26" t="n">
         <v>16.8221</v>
       </c>
-      <c r="J26" t="n">
+      <c r="S26" t="n">
+        <v>296.6788</v>
+      </c>
+      <c r="T26" t="n">
         <v>147.2116</v>
       </c>
-      <c r="K26" t="n">
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="n">
         <v>155.9563</v>
       </c>
-      <c r="L26" t="n">
+      <c r="W26" t="n">
+        <v>113.3605</v>
+      </c>
+      <c r="X26" t="n">
         <v>248.9348</v>
       </c>
-      <c r="M26" t="n">
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="n">
         <v>246.7075</v>
       </c>
-      <c r="N26" t="n">
+      <c r="AA26" t="n">
         <v>183.5569</v>
       </c>
-      <c r="O26" t="n">
+      <c r="AB26" t="n">
         <v>137.8869</v>
       </c>
-      <c r="P26" t="n">
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="n">
         <v>1.7044</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>45172</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="n">
         <v>186.6057</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>146.3251</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>144.3264</v>
+      </c>
+      <c r="G27" t="n">
         <v>4.2147</v>
       </c>
-      <c r="E27" t="n">
+      <c r="H27" t="n">
         <v>7.7397</v>
       </c>
-      <c r="F27" t="n">
+      <c r="I27" t="n">
+        <v>137.8199</v>
+      </c>
+      <c r="J27" t="n">
+        <v>124.8459</v>
+      </c>
+      <c r="K27" t="n">
         <v>3.2489</v>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="n">
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>178.3685</v>
       </c>
-      <c r="I27" t="n">
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="n">
+        <v>78.60890000000001</v>
+      </c>
+      <c r="R27" t="n">
         <v>12.3782</v>
       </c>
-      <c r="J27" t="n">
+      <c r="S27" t="n">
+        <v>244.937</v>
+      </c>
+      <c r="T27" t="n">
         <v>227.6359</v>
       </c>
-      <c r="K27" t="n">
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="n">
         <v>131.1428</v>
       </c>
-      <c r="L27" t="n">
+      <c r="W27" t="n">
+        <v>67.62569999999999</v>
+      </c>
+      <c r="X27" t="n">
         <v>209.4894</v>
       </c>
-      <c r="M27" t="n">
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="n">
         <v>117.0704</v>
       </c>
-      <c r="N27" t="n">
+      <c r="AA27" t="n">
         <v>157.6124</v>
       </c>
-      <c r="O27" t="n">
+      <c r="AB27" t="n">
         <v>151.5004</v>
       </c>
-      <c r="P27" t="n">
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="n">
         <v>3.4985</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>45177</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
         <v>208.5161</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="n">
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>174.2735</v>
+      </c>
+      <c r="G28" t="n">
         <v>6.679</v>
       </c>
-      <c r="E28" t="n">
+      <c r="H28" t="n">
         <v>7.9369</v>
       </c>
-      <c r="F28" t="n">
+      <c r="I28" t="n">
+        <v>138.0548</v>
+      </c>
+      <c r="J28" t="n">
+        <v>123.2503</v>
+      </c>
+      <c r="K28" t="n">
         <v>5.6029</v>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="n">
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>146.1217</v>
       </c>
-      <c r="I28" t="n">
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="n">
+        <v>118.8858</v>
+      </c>
+      <c r="R28" t="n">
         <v>15.169</v>
       </c>
-      <c r="J28" t="n">
+      <c r="S28" t="n">
+        <v>281.5562</v>
+      </c>
+      <c r="T28" t="n">
         <v>208.2079</v>
       </c>
-      <c r="K28" t="n">
+      <c r="U28" t="n">
+        <v>6.7539</v>
+      </c>
+      <c r="V28" t="n">
         <v>6.2012</v>
       </c>
-      <c r="L28" t="n">
+      <c r="W28" t="n">
+        <v>94.4537</v>
+      </c>
+      <c r="X28" t="n">
         <v>150.9499</v>
       </c>
-      <c r="M28" t="n">
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="n">
         <v>232.1581</v>
       </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="n">
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="n">
         <v>247.6542</v>
       </c>
-      <c r="P28" t="n">
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="n">
         <v>54.399</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>45179</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="n">
         <v>236.2186</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>12.4938</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>203.0573</v>
+      </c>
+      <c r="G29" t="n">
         <v>15.9265</v>
       </c>
-      <c r="E29" t="n">
+      <c r="H29" t="n">
         <v>14.3428</v>
       </c>
-      <c r="F29" t="n">
+      <c r="I29" t="n">
+        <v>88.48909999999999</v>
+      </c>
+      <c r="J29" t="n">
+        <v>192.7279</v>
+      </c>
+      <c r="K29" t="n">
         <v>11.0531</v>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="n">
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>152.1599</v>
       </c>
-      <c r="I29" t="n">
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="n">
         <v>18.7809</v>
       </c>
-      <c r="J29" t="n">
+      <c r="S29" t="n">
+        <v>274.4641</v>
+      </c>
+      <c r="T29" t="n">
         <v>264.5247</v>
       </c>
-      <c r="K29" t="n">
+      <c r="U29" t="n">
+        <v>82.3085</v>
+      </c>
+      <c r="V29" t="n">
         <v>10.6485</v>
       </c>
-      <c r="L29" t="n">
+      <c r="W29" t="n">
+        <v>155.0158</v>
+      </c>
+      <c r="X29" t="n">
         <v>199.7984</v>
       </c>
-      <c r="M29" t="n">
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="n">
         <v>214.8877</v>
       </c>
-      <c r="N29" t="n">
+      <c r="AA29" t="n">
         <v>163.7454</v>
       </c>
-      <c r="O29" t="n">
+      <c r="AB29" t="n">
         <v>201.5441</v>
       </c>
-      <c r="P29" t="n">
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="n">
         <v>32.5481</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>45184</v>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="n">
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="n">
         <v>7.6162</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>202.5149</v>
+      </c>
+      <c r="G30" t="n">
         <v>6.0828</v>
       </c>
-      <c r="E30" t="n">
+      <c r="H30" t="n">
         <v>11.8603</v>
       </c>
-      <c r="F30" t="n">
+      <c r="I30" t="n">
+        <v>88.9907</v>
+      </c>
+      <c r="J30" t="n">
+        <v>107.7623</v>
+      </c>
+      <c r="K30" t="n">
         <v>5.5738</v>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="n">
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>188.5874</v>
       </c>
-      <c r="I30" t="n">
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="n">
         <v>15.2601</v>
       </c>
-      <c r="J30" t="n">
+      <c r="S30" t="n">
+        <v>258.4119</v>
+      </c>
+      <c r="T30" t="n">
         <v>228.4302</v>
       </c>
-      <c r="K30" t="n">
+      <c r="U30" t="n">
+        <v>6.8558</v>
+      </c>
+      <c r="V30" t="n">
         <v>5.4912</v>
       </c>
-      <c r="L30" t="n">
+      <c r="W30" t="n">
+        <v>59.845</v>
+      </c>
+      <c r="X30" t="n">
         <v>199.8462</v>
       </c>
-      <c r="M30" t="n">
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="n">
         <v>213.4074</v>
       </c>
-      <c r="N30" t="n">
+      <c r="AA30" t="n">
         <v>231.9517</v>
       </c>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="n">
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="n">
         <v>25.3902</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>45186</v>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="n">
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="n">
         <v>14.5329</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>225.1911</v>
+      </c>
+      <c r="G31" t="n">
         <v>10.896</v>
       </c>
-      <c r="E31" t="n">
+      <c r="H31" t="n">
         <v>17.017</v>
       </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
+        <v>96.8468</v>
+      </c>
+      <c r="J31" t="n">
+        <v>119.1364</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>219.2402</v>
       </c>
-      <c r="I31" t="n">
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="n">
         <v>22.7541</v>
       </c>
-      <c r="J31" t="n">
+      <c r="S31" t="n">
+        <v>293.3068</v>
+      </c>
+      <c r="T31" t="n">
         <v>275.47</v>
       </c>
-      <c r="K31" t="n">
+      <c r="U31" t="n">
+        <v>70.7582</v>
+      </c>
+      <c r="V31" t="n">
         <v>109.8362</v>
       </c>
-      <c r="L31" t="n">
+      <c r="W31" t="n">
+        <v>125.8897</v>
+      </c>
+      <c r="X31" t="n">
         <v>224.9234</v>
       </c>
-      <c r="M31" t="n">
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="n">
         <v>0</v>
       </c>
-      <c r="N31" t="n">
+      <c r="AA31" t="n">
         <v>269.964</v>
       </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="n">
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="n">
         <v>34.2953</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>45191</v>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="n">
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="n">
         <v>9.8139</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>240.8656</v>
+      </c>
+      <c r="G32" t="n">
         <v>11.7592</v>
       </c>
-      <c r="E32" t="n">
+      <c r="H32" t="n">
         <v>13.1471</v>
       </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
+        <v>109.5086</v>
+      </c>
+      <c r="J32" t="n">
+        <v>148.2845</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>217.5541</v>
       </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="n">
+        <v>207.648</v>
+      </c>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="n">
+        <v>298.9818</v>
+      </c>
+      <c r="T32" t="n">
         <v>270.8411</v>
       </c>
-      <c r="K32" t="n">
+      <c r="U32" t="n">
+        <v>103.2003</v>
+      </c>
+      <c r="V32" t="n">
         <v>145.8796</v>
       </c>
-      <c r="L32" t="n">
+      <c r="W32" t="n">
+        <v>150.1677</v>
+      </c>
+      <c r="X32" t="n">
         <v>221.7037</v>
       </c>
-      <c r="M32" t="n">
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="n">
         <v>0</v>
       </c>
-      <c r="N32" t="n">
+      <c r="AA32" t="n">
         <v>176.1729</v>
       </c>
-      <c r="O32" t="n">
+      <c r="AB32" t="n">
         <v>177.7735</v>
       </c>
-      <c r="P32" t="n">
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="n">
         <v>25.088</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>45198</v>
       </c>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="n">
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="n">
         <v>4.5949</v>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>233.698</v>
+      </c>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="n">
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>124.4696</v>
+      </c>
+      <c r="J33" t="n">
+        <v>153.2871</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>204.3717</v>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="n">
+        <v>201.0012</v>
+      </c>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="n">
+        <v>276.1481</v>
+      </c>
+      <c r="T33" t="n">
         <v>259.0989</v>
       </c>
-      <c r="K33" t="n">
+      <c r="U33" t="n">
+        <v>83.7978</v>
+      </c>
+      <c r="V33" t="n">
         <v>28.652</v>
       </c>
-      <c r="L33" t="n">
+      <c r="W33" t="n">
+        <v>126.9003</v>
+      </c>
+      <c r="X33" t="n">
         <v>192.4342</v>
       </c>
-      <c r="M33" t="n">
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="n">
         <v>233.9898</v>
       </c>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="n">
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="n">
         <v>200.8304</v>
       </c>
-      <c r="P33" t="n">
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="n">
         <v>49.8687</v>
       </c>
+      <c r="AF33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>45200</v>
       </c>
       <c r="B34" t="inlineStr"/>
-      <c r="C34" t="n">
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="n">
         <v>88.1069</v>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>186.4641</v>
+      </c>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="n">
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>31.1026</v>
+      </c>
+      <c r="J34" t="n">
+        <v>122.8057</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>196.8448</v>
       </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="n">
+        <v>269.6849</v>
+      </c>
+      <c r="T34" t="n">
         <v>237.6464</v>
       </c>
-      <c r="K34" t="n">
+      <c r="U34" t="n">
+        <v>112.5968</v>
+      </c>
+      <c r="V34" t="n">
         <v>129.3209</v>
       </c>
-      <c r="L34" t="n">
+      <c r="W34" t="n">
+        <v>96.3948</v>
+      </c>
+      <c r="X34" t="n">
         <v>188.8052</v>
       </c>
-      <c r="M34" t="n">
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="n">
         <v>197.6446</v>
       </c>
-      <c r="N34" t="n">
+      <c r="AA34" t="n">
         <v>158.8549</v>
       </c>
-      <c r="O34" t="n">
+      <c r="AB34" t="n">
         <v>186.1151</v>
       </c>
-      <c r="P34" t="n">
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="n">
         <v>29.1881</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>45205</v>
       </c>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" t="n">
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="n">
         <v>9.2768</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>280.0831</v>
+      </c>
+      <c r="G35" t="n">
         <v>104.7999</v>
       </c>
-      <c r="E35" t="n">
+      <c r="H35" t="n">
         <v>16.5617</v>
       </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
+        <v>112.7915</v>
+      </c>
+      <c r="J35" t="n">
+        <v>157.9645</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>228.1595</v>
       </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="n">
+        <v>283.9701</v>
+      </c>
+      <c r="T35" t="n">
         <v>282.6318</v>
       </c>
-      <c r="K35" t="n">
+      <c r="U35" t="n">
+        <v>93.38039999999999</v>
+      </c>
+      <c r="V35" t="n">
         <v>77.453</v>
       </c>
-      <c r="L35" t="n">
+      <c r="W35" t="n">
+        <v>54.8645</v>
+      </c>
+      <c r="X35" t="n">
         <v>227.2168</v>
       </c>
-      <c r="M35" t="n">
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="n">
         <v>271.8438</v>
       </c>
-      <c r="N35" t="n">
+      <c r="AA35" t="n">
         <v>186.8264</v>
       </c>
-      <c r="O35" t="n">
+      <c r="AB35" t="n">
         <v>176.1305</v>
       </c>
-      <c r="P35" t="n">
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="n">
         <v>30.2777</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>45207</v>
       </c>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" t="n">
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="n">
         <v>11.2243</v>
       </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="n">
-        <v>12.755</v>
-      </c>
-      <c r="F36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>218.3245</v>
+      </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
+        <v>12.755</v>
+      </c>
+      <c r="I36" t="n">
+        <v>8.983700000000001</v>
+      </c>
+      <c r="J36" t="n">
+        <v>133.6248</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>198.3082</v>
       </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="n">
+        <v>269.0797</v>
+      </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="n">
         <v>190.566</v>
       </c>
-      <c r="L36" t="n">
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="n">
         <v>228.1316</v>
       </c>
-      <c r="M36" t="n">
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="n">
         <v>237.1998</v>
       </c>
-      <c r="N36" t="n">
+      <c r="AA36" t="n">
         <v>193.5523</v>
       </c>
-      <c r="O36" t="n">
+      <c r="AB36" t="n">
         <v>219.0859</v>
       </c>
-      <c r="P36" t="n">
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="n">
         <v>40.6154</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>45212</v>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="n">
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="n">
         <v>1.9919</v>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>254.6289</v>
+      </c>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="n">
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>199.013</v>
+      </c>
+      <c r="J37" t="n">
+        <v>189.7981</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>200.346</v>
       </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="n">
+        <v>265.3266</v>
+      </c>
+      <c r="T37" t="n">
         <v>163.0004</v>
       </c>
-      <c r="K37" t="n">
+      <c r="U37" t="n">
+        <v>97.5433</v>
+      </c>
+      <c r="V37" t="n">
         <v>117.7672</v>
       </c>
-      <c r="L37" t="n">
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="n">
         <v>218.6503</v>
       </c>
-      <c r="M37" t="n">
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="n">
         <v>217.9861</v>
       </c>
-      <c r="N37" t="n">
+      <c r="AA37" t="n">
         <v>128.9004</v>
       </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="n">
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="n">
         <v>26.8104</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>45219</v>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="n">
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="n">
         <v>11.4045</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>205.5162</v>
+      </c>
+      <c r="G38" t="n">
         <v>8.376300000000001</v>
       </c>
-      <c r="E38" t="n">
+      <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
+        <v>101.6651</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>182.9232</v>
       </c>
-      <c r="I38" t="n">
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
+      <c r="S38" t="n">
+        <v>259.1208</v>
+      </c>
+      <c r="T38" t="n">
         <v>229.9824</v>
       </c>
-      <c r="K38" t="n">
+      <c r="U38" t="n">
+        <v>10.1808</v>
+      </c>
+      <c r="V38" t="n">
         <v>7.8081</v>
       </c>
-      <c r="L38" t="n">
+      <c r="W38" t="n">
+        <v>99.92749999999999</v>
+      </c>
+      <c r="X38" t="n">
         <v>206.1669</v>
       </c>
-      <c r="M38" t="n">
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="n">
         <v>209.6516</v>
       </c>
-      <c r="N38" t="n">
+      <c r="AA38" t="n">
         <v>191.0343</v>
       </c>
-      <c r="O38" t="n">
+      <c r="AB38" t="n">
         <v>199.94</v>
       </c>
-      <c r="P38" t="n">
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="n">
         <v>74.19280000000001</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>45221</v>
       </c>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="n">
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="n">
         <v>8.73</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>279.4208</v>
+      </c>
+      <c r="G39" t="n">
         <v>10.212</v>
       </c>
-      <c r="E39" t="n">
+      <c r="H39" t="n">
         <v>7.68</v>
       </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
+        <v>51.6966</v>
+      </c>
+      <c r="J39" t="n">
+        <v>147.6483</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>203.123</v>
       </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="n">
+        <v>218.6267</v>
+      </c>
+      <c r="T39" t="n">
         <v>265.2968</v>
       </c>
-      <c r="K39" t="n">
+      <c r="U39" t="n">
+        <v>11.8521</v>
+      </c>
+      <c r="V39" t="n">
         <v>85.3446</v>
       </c>
-      <c r="L39" t="n">
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
         <v>201.5913</v>
       </c>
-      <c r="M39" t="n">
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="n">
         <v>218.7177</v>
       </c>
-      <c r="N39" t="n">
+      <c r="AA39" t="n">
         <v>193.2278</v>
       </c>
-      <c r="O39" t="n">
+      <c r="AB39" t="n">
         <v>183.1519</v>
       </c>
-      <c r="P39" t="n">
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="n">
         <v>45.0288</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>45226</v>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="n">
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="n">
         <v>10.3937</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>269.2871</v>
+      </c>
+      <c r="G40" t="n">
         <v>10.646</v>
       </c>
-      <c r="E40" t="n">
+      <c r="H40" t="n">
         <v>15.3001</v>
       </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
+        <v>110.8393</v>
+      </c>
+      <c r="J40" t="n">
+        <v>167.2198</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>216.9153</v>
       </c>
-      <c r="I40" t="n">
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
+      <c r="S40" t="n">
+        <v>272.8298</v>
+      </c>
+      <c r="T40" t="n">
         <v>269.2227</v>
       </c>
-      <c r="K40" t="n">
+      <c r="U40" t="n">
+        <v>13.7192</v>
+      </c>
+      <c r="V40" t="n">
         <v>79.97280000000001</v>
       </c>
-      <c r="L40" t="n">
+      <c r="W40" t="n">
+        <v>23.6354</v>
+      </c>
+      <c r="X40" t="n">
         <v>215.7242</v>
       </c>
-      <c r="M40" t="n">
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="n">
         <v>226.8468</v>
       </c>
-      <c r="N40" t="n">
+      <c r="AA40" t="n">
         <v>223.1296</v>
       </c>
-      <c r="O40" t="n">
+      <c r="AB40" t="n">
         <v>201.3341</v>
       </c>
-      <c r="P40" t="n">
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="n">
         <v>37.9821</v>
       </c>
+      <c r="AF40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>45228</v>
       </c>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" t="n">
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="n">
         <v>7.1838</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>257.9102</v>
+      </c>
+      <c r="G41" t="n">
         <v>4.5732</v>
       </c>
-      <c r="E41" t="n">
+      <c r="H41" t="n">
         <v>6.5085</v>
       </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
+        <v>210.188</v>
+      </c>
+      <c r="J41" t="n">
+        <v>164.006</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>188.1262</v>
       </c>
-      <c r="I41" t="n">
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="n">
         <v>20.3348</v>
       </c>
-      <c r="J41" t="n">
+      <c r="S41" t="n">
+        <v>274.4337</v>
+      </c>
+      <c r="T41" t="n">
         <v>156.8556</v>
       </c>
-      <c r="K41" t="n">
+      <c r="U41" t="n">
+        <v>5.347</v>
+      </c>
+      <c r="V41" t="n">
         <v>145.7355</v>
       </c>
-      <c r="L41" t="n">
+      <c r="W41" t="n">
+        <v>134.9369</v>
+      </c>
+      <c r="X41" t="n">
         <v>221.5772</v>
       </c>
-      <c r="M41" t="n">
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="n">
         <v>240.1568</v>
       </c>
-      <c r="N41" t="n">
+      <c r="AA41" t="n">
         <v>115.6257</v>
       </c>
-      <c r="O41" t="n">
+      <c r="AB41" t="n">
         <v>240.8527</v>
       </c>
-      <c r="P41" t="n">
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="n">
         <v>51.8857</v>
       </c>
+      <c r="AF41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>45232</v>
       </c>
       <c r="B42" t="inlineStr"/>
-      <c r="C42" t="n">
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="n">
         <v>4.4021</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>242.6635</v>
+      </c>
+      <c r="G42" t="n">
         <v>8.2142</v>
       </c>
-      <c r="E42" t="n">
+      <c r="H42" t="n">
         <v>11.2188</v>
       </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
+        <v>104.7518</v>
+      </c>
+      <c r="J42" t="n">
+        <v>146.4787</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>177.7029</v>
       </c>
-      <c r="I42" t="n">
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="n">
         <v>12.9655</v>
       </c>
-      <c r="J42" t="n">
+      <c r="S42" t="n">
+        <v>281.7854</v>
+      </c>
+      <c r="T42" t="n">
         <v>265.2329</v>
       </c>
-      <c r="K42" t="n">
+      <c r="U42" t="n">
+        <v>6.8116</v>
+      </c>
+      <c r="V42" t="n">
         <v>146.6306</v>
       </c>
-      <c r="L42" t="n">
+      <c r="W42" t="n">
+        <v>6.5081</v>
+      </c>
+      <c r="X42" t="n">
         <v>220.0387</v>
       </c>
-      <c r="M42" t="n">
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="n">
         <v>214.1154</v>
       </c>
-      <c r="N42" t="n">
+      <c r="AA42" t="n">
         <v>208.7992</v>
       </c>
-      <c r="O42" t="n">
+      <c r="AB42" t="n">
         <v>176.19</v>
       </c>
-      <c r="P42" t="n">
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="n">
         <v>49.7317</v>
       </c>
+      <c r="AF42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2135,87 +3609,119 @@
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="n">
-        <v>224.0047</v>
-      </c>
-      <c r="E43" t="n">
-        <v>238.3124</v>
-      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="n">
+        <v>224.0047</v>
+      </c>
+      <c r="H43" t="n">
+        <v>238.3124</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
         <v>167.8345</v>
       </c>
-      <c r="H43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>182.9272</v>
       </c>
-      <c r="I43" t="n">
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="n">
         <v>171.5855</v>
       </c>
-      <c r="J43" t="n">
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="n">
         <v>232.0924</v>
       </c>
-      <c r="K43" t="n">
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="n">
         <v>209.0142</v>
       </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="n">
         <v>216.674</v>
       </c>
-      <c r="N43" t="n">
+      <c r="AA43" t="n">
         <v>224.2234</v>
       </c>
-      <c r="O43" t="n">
+      <c r="AB43" t="n">
         <v>252.1504</v>
       </c>
-      <c r="P43" t="n">
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="n">
         <v>77.6922</v>
       </c>
+      <c r="AF43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>45396</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="n">
         <v>186.7382</v>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="n">
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="n">
         <v>124.4492</v>
       </c>
-      <c r="E44" t="n">
+      <c r="H44" t="n">
         <v>122.7699</v>
       </c>
-      <c r="F44" t="n">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
         <v>180.6312</v>
       </c>
-      <c r="G44" t="n">
+      <c r="L44" t="n">
         <v>154.3396</v>
       </c>
-      <c r="H44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>179.1049</v>
       </c>
-      <c r="I44" t="n">
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="n">
         <v>149.0193</v>
       </c>
-      <c r="J44" t="n">
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="n">
         <v>213.032</v>
       </c>
-      <c r="K44" t="n">
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="n">
         <v>196.484</v>
       </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="n">
         <v>218.7565</v>
       </c>
-      <c r="N44" t="n">
+      <c r="AA44" t="n">
         <v>172.6579</v>
       </c>
-      <c r="O44" t="n">
+      <c r="AB44" t="n">
         <v>178.5271</v>
       </c>
-      <c r="P44" t="n">
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="n">
         <v>75.8699</v>
       </c>
+      <c r="AF44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2224,38 +3730,54 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="n">
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="n">
         <v>211.7264</v>
       </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="n">
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
         <v>126.144</v>
       </c>
-      <c r="H45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>154.0485</v>
       </c>
-      <c r="I45" t="n">
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="n">
         <v>159.9217</v>
       </c>
-      <c r="J45" t="n">
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="n">
         <v>182.9153</v>
       </c>
-      <c r="K45" t="n">
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="n">
         <v>169.2457</v>
       </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="n">
         <v>223.2303</v>
       </c>
-      <c r="N45" t="n">
+      <c r="AA45" t="n">
         <v>174.0379</v>
       </c>
-      <c r="O45" t="n">
+      <c r="AB45" t="n">
         <v>193.0424</v>
       </c>
-      <c r="P45" t="n">
+      <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr"/>
+      <c r="AE45" t="n">
         <v>67.00230000000001</v>
       </c>
+      <c r="AF45" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
